--- a/exercicios_PO/faceis/exercicio_1/base_dados_exercicio_1.xlsx
+++ b/exercicios_PO/faceis/exercicio_1/base_dados_exercicio_1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaon\OneDrive\Documentos\GitHub\mestrado\exercicios_PO\faceis\exercicio_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DECIV\Documents\GitHub\mestrado\exercicios_PO\faceis\exercicio_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40BBE47-9C7A-499E-B30B-9F4B902951D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E31C1A-E4E4-404A-A138-C4F615B4B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A331CA-8B0A-4BC6-9C33-B211C845BAE1}"/>
+    <workbookView xWindow="735" yWindow="1665" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{C9A331CA-8B0A-4BC6-9C33-B211C845BAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredientes" sheetId="1" r:id="rId1"/>
     <sheet name="racao" sheetId="2" r:id="rId2"/>
     <sheet name="conteudo_nutricional" sheetId="3" r:id="rId3"/>
+    <sheet name="requisitos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Ingrediente</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>Energia (unidades/kg)</t>
+  </si>
+  <si>
+    <t>Proteina</t>
+  </si>
+  <si>
+    <t>Energia</t>
   </si>
 </sst>
 </file>
@@ -455,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280EA144-59A5-4C86-8020-1BCD166F9D86}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +657,52 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F258ED9D-5052-4F1E-BC7A-1F3DF8F0255C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>